--- a/scenario_analysis_v2/spatial/spatial_data.xlsx
+++ b/scenario_analysis_v2/spatial/spatial_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Dataset name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>tnc_terr_ecoregions.shp (ESRI shapefile with multiple files)</t>
   </si>
   <si>
-    <t>Olson, D. M. and E. Dinerstein. 2002. The Global 200: Priority ecoregions for global conservation. (PDF file) Annals of the Missouri Botanical Garden 89:125-126. -The Nature Conservancy, USDA Forest Service and U.S. Geological Survey, based on Bailey, Robert G. 1995. Description of the ecoregions of the United States (2nd ed.). Misc. Pub. No. 1391, Map scale 1:7,500,000. USDA Forest Service. 108pp. -The Nature Conservancy (2003), based on Wiken, E.B. (compiler). 1986. Terrestrial ecozones of Canada. Ecological Land Classification Series No. 19. Environment Canada, Hull, Que. 26 pp. + map.</t>
-  </si>
-  <si>
     <t>United States administrative boundaries shapefile</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>https://www.mrlc.gov/data/nlcd-2001-land-cover-hawaii-0</t>
   </si>
   <si>
-    <t>National Land Cover Dataset 2001, Hawaii</t>
-  </si>
-  <si>
     <t>pasture.tif</t>
   </si>
   <si>
@@ -171,6 +165,36 @@
   </si>
   <si>
     <t>https://sedac.ciesin.columbia.edu/data/set/usgrid-summary-file1-2010/data-download</t>
+  </si>
+  <si>
+    <t>Olson, D. M. and E. Dinerstein. 2002. The Global 200: Priority ecoregions for global conservation. (PDF file) Annals of the Missouri Botanical Garden 89:125-126.</t>
+  </si>
+  <si>
+    <t>Natural Earth - Free vector and raster map data at 1:10m, 1:50m, and 1:110m scales, n.d. URL https://www.naturalearthdata.com/ (accessed 4.1.21).</t>
+  </si>
+  <si>
+    <t>GADM (Global Administrative Areas Database) [WWW Document], n.d. URL https://gadm.org/ (accessed 4.1.21).</t>
+  </si>
+  <si>
+    <t>NOAA Land Cover Dataset 2001, Hawaii</t>
+  </si>
+  <si>
+    <t>Thenkabail, P., Knox, J., Ozdogan, M., Gumma, M., Congalton, R., Wu, Z., Milesi, C., Finkral, A., Marshall, M., Mariotto, I., You, S., Giri, C., Nagler, P. (2016). NASA Making Earth System Data Records for Use in Research Environments (MEaSUREs) Global Food Security Support Analysis Data (GFSAD) Crop Dominance 2010 Global 1 km V001 [Data set]. NASA EOSDIS Land Processes DAAC.</t>
+  </si>
+  <si>
+    <t>Ramankutty, N., Evan, A.T., Monfreda, C., Foley, J.A., 2008. Farming the planet: 1. Geographic distribution of global agricultural lands in the year 2000. Global Biogeochemical Cycles 22. https://doi.org/10.1029/2007GB002952</t>
+  </si>
+  <si>
+    <t>Center For International Earth Science Information Network-CIESIN-Columbia University, 2017. U.S. Census Grids (Summary File 1), 2010. https://doi.org/10.7927/H40Z716C</t>
+  </si>
+  <si>
+    <t>Dewitz, J., 2019, National Land Cover Database (NLCD) 2016 Products: U.S. Geological Survey data release, https://doi.org/10.5066/P96HHBIE.</t>
+  </si>
+  <si>
+    <t>MRLC, 2003. NLCD 2001 Land Cover (HAWAII) | Multi-Resolution Land Characteristics (MRLC) Consortium [WWW Document]. URL https://www.mrlc.gov/data/nlcd-2001-land-cover-hawaii-0 (accessed 4.1.21).</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau, n.d. TIGER/Line Shapefiles [WWW Document]. The United States Census Bureau. URL https://www.census.gov/geographies/mapping-files/time-series/geo/tiger-line-file.html (accessed 4.1.21).</t>
   </si>
 </sst>
 </file>
@@ -215,10 +239,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -503,12 +528,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -558,61 +583,67 @@
         <v>44284</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>42025</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>43069</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>44090</v>
@@ -620,19 +651,22 @@
       <c r="F5" s="1">
         <v>44284</v>
       </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1">
         <v>43724</v>
@@ -640,19 +674,22 @@
       <c r="F6" s="1">
         <v>44284</v>
       </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>44231</v>
@@ -660,19 +697,22 @@
       <c r="F7" s="1">
         <v>44284</v>
       </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>44231</v>
@@ -680,19 +720,22 @@
       <c r="F8" s="1">
         <v>44284</v>
       </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>44090</v>
@@ -700,19 +743,22 @@
       <c r="F9" s="1">
         <v>44284</v>
       </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="1">
         <v>44090</v>
@@ -720,30 +766,38 @@
       <c r="F10" s="1">
         <v>44284</v>
       </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="1">
         <v>44057</v>
       </c>
       <c r="F11" s="1">
         <v>44284</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2" location="qt-science_center_objects"/>
+    <hyperlink ref="D11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scenario_analysis_v2/spatial/spatial_data.xlsx
+++ b/scenario_analysis_v2/spatial/spatial_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Dataset name</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Name of file(s)</t>
-  </si>
-  <si>
     <t>Location on web</t>
   </si>
   <si>
@@ -143,12 +140,6 @@
     <t>GFSAD1KCD.2010.001.2016348142525.tif</t>
   </si>
   <si>
-    <t>Global cropland dominance raster layer 2010</t>
-  </si>
-  <si>
-    <t>United States population raster layer 2010</t>
-  </si>
-  <si>
     <t>https://sedac.ciesin.columbia.edu/data/set/aglands-pastures-2000/data-download</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>Raster at 1km resolution of global pastureland</t>
   </si>
   <si>
-    <t>Global pastureland raster layer 2000</t>
-  </si>
-  <si>
     <t>https://sedac.ciesin.columbia.edu/data/set/usgrid-summary-file1-2010/data-download</t>
   </si>
   <si>
@@ -195,6 +183,42 @@
   </si>
   <si>
     <t>U.S. Census Bureau, n.d. TIGER/Line Shapefiles [WWW Document]. The United States Census Bureau. URL https://www.census.gov/geographies/mapping-files/time-series/geo/tiger-line-file.html (accessed 4.1.21).</t>
+  </si>
+  <si>
+    <t>Data year(s)</t>
+  </si>
+  <si>
+    <t>Name of file(s) archived in manuscript data repository</t>
+  </si>
+  <si>
+    <t>Global Agricultural Lands: Pastures v1</t>
+  </si>
+  <si>
+    <t>Global Food Security Support Analysis Data (GFSAD) Crop Dominance 2010 Global 1 km</t>
+  </si>
+  <si>
+    <t>U.S. Census Grids: Summary File 1, v1</t>
+  </si>
+  <si>
+    <t>Dataset provider</t>
+  </si>
+  <si>
+    <t>The Nature Conservancy</t>
+  </si>
+  <si>
+    <t>Global Administrative Areas Database</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>Natural Earth</t>
+  </si>
+  <si>
+    <t>Multresolution Land Characteristics Consortium</t>
+  </si>
+  <si>
+    <t>SEDAC CIESIN, Columbia University</t>
   </si>
 </sst>
 </file>
@@ -525,279 +549,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>2009</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2" s="1">
+        <v>43388</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44284</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43388</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>2015</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42025</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>2014</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43069</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44090</v>
+      </c>
+      <c r="H5" s="1">
         <v>44284</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43724</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44284</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>2016</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44231</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44284</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44231</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44284</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44090</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44284</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>2010</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44090</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44284</v>
+      </c>
+      <c r="I10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1">
-        <v>42025</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>2010</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44057</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44284</v>
+      </c>
+      <c r="I11" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43069</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44090</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44284</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43724</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44284</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44231</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44284</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44231</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44284</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44090</v>
-      </c>
-      <c r="F9" s="1">
-        <v>44284</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44090</v>
-      </c>
-      <c r="F10" s="1">
-        <v>44284</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44057</v>
-      </c>
-      <c r="F11" s="1">
-        <v>44284</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2" location="qt-science_center_objects"/>
-    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId2" location="qt-science_center_objects"/>
+    <hyperlink ref="F11" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
